--- a/data_clean/population_20_49_f.xlsx
+++ b/data_clean/population_20_49_f.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,429 +436,6221 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>행정기관</t>
+          <t>행정기관(대)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>여 인구수</t>
+          <t>행정기관(소)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>20~29세</t>
+          <t>총 인구수</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>30~39세</t>
+          <t>여 20~29세</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>40~49세</t>
+          <t>여 30~39세</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>20~49세</t>
+          <t>여 40~49세</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>여 20~49세</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">전국  </t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25722581</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2864878</v>
+        <v>138577</v>
       </c>
       <c r="D2" t="n">
-        <v>3163937</v>
+        <v>11173</v>
       </c>
       <c r="E2" t="n">
-        <v>3809097</v>
+        <v>9908</v>
       </c>
       <c r="F2" t="n">
-        <v>9837912</v>
+        <v>9599</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30680</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울특별시  </t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4827831</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>694359</v>
+        <v>120931</v>
       </c>
       <c r="D3" t="n">
-        <v>719488</v>
+        <v>9297</v>
       </c>
       <c r="E3" t="n">
-        <v>702180</v>
+        <v>10861</v>
       </c>
       <c r="F3" t="n">
-        <v>2116027</v>
+        <v>8142</v>
+      </c>
+      <c r="G3" t="n">
+        <v>28300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">부산광역시  </t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1677762</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>용산구</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>175909</v>
+        <v>204079</v>
       </c>
       <c r="D4" t="n">
-        <v>188353</v>
+        <v>15208</v>
       </c>
       <c r="E4" t="n">
-        <v>233777</v>
+        <v>18672</v>
       </c>
       <c r="F4" t="n">
-        <v>598039</v>
+        <v>14919</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">대구광역시  </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1204260</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>성동구</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>127851</v>
+        <v>274287</v>
       </c>
       <c r="D5" t="n">
-        <v>131623</v>
+        <v>20302</v>
       </c>
       <c r="E5" t="n">
-        <v>174239</v>
+        <v>23704</v>
       </c>
       <c r="F5" t="n">
-        <v>433713</v>
+        <v>19892</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">인천광역시  </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1510400</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>광진구</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>170320</v>
+        <v>332571</v>
       </c>
       <c r="D6" t="n">
-        <v>201082</v>
+        <v>30715</v>
       </c>
       <c r="E6" t="n">
-        <v>231493</v>
+        <v>27770</v>
       </c>
       <c r="F6" t="n">
-        <v>602895</v>
+        <v>23829</v>
+      </c>
+      <c r="G6" t="n">
+        <v>82314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">광주광역시  </t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>713770</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>동대문구</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>87459</v>
+        <v>339611</v>
       </c>
       <c r="D7" t="n">
-        <v>83695</v>
+        <v>29518</v>
       </c>
       <c r="E7" t="n">
-        <v>110340</v>
+        <v>24517</v>
       </c>
       <c r="F7" t="n">
-        <v>281494</v>
+        <v>23055</v>
+      </c>
+      <c r="G7" t="n">
+        <v>77090</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">대전광역시  </t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>722023</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>중랑구</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>92903</v>
+        <v>379541</v>
       </c>
       <c r="D8" t="n">
-        <v>89368</v>
+        <v>25136</v>
       </c>
       <c r="E8" t="n">
-        <v>107029</v>
+        <v>28510</v>
       </c>
       <c r="F8" t="n">
-        <v>289300</v>
+        <v>24951</v>
+      </c>
+      <c r="G8" t="n">
+        <v>78597</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">울산광역시  </t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>533447</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>성북구</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>50208</v>
+        <v>422141</v>
       </c>
       <c r="D9" t="n">
-        <v>61713</v>
+        <v>33926</v>
       </c>
       <c r="E9" t="n">
-        <v>84038</v>
+        <v>27876</v>
       </c>
       <c r="F9" t="n">
-        <v>195959</v>
+        <v>31043</v>
+      </c>
+      <c r="G9" t="n">
+        <v>92845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">세종특별자치시  </t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>196196</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>강북구</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>18258</v>
+        <v>283934</v>
       </c>
       <c r="D10" t="n">
-        <v>29846</v>
+        <v>19272</v>
       </c>
       <c r="E10" t="n">
-        <v>39283</v>
+        <v>16413</v>
       </c>
       <c r="F10" t="n">
-        <v>87387</v>
+        <v>18394</v>
+      </c>
+      <c r="G10" t="n">
+        <v>54079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">경기도  </t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6810080</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>도봉구</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>776598</v>
+        <v>303468</v>
       </c>
       <c r="D11" t="n">
-        <v>908407</v>
+        <v>18143</v>
       </c>
       <c r="E11" t="n">
-        <v>1087920</v>
+        <v>18206</v>
       </c>
       <c r="F11" t="n">
-        <v>2772925</v>
+        <v>20400</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56749</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">강원특별자치도  </t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>755123</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>노원구</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>69064</v>
+        <v>492072</v>
       </c>
       <c r="D12" t="n">
-        <v>73479</v>
+        <v>31946</v>
       </c>
       <c r="E12" t="n">
-        <v>99040</v>
+        <v>30092</v>
       </c>
       <c r="F12" t="n">
-        <v>241583</v>
+        <v>37793</v>
+      </c>
+      <c r="G12" t="n">
+        <v>99831</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">충청북도  </t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>781403</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>은평구</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>78138</v>
+        <v>461086</v>
       </c>
       <c r="D13" t="n">
-        <v>85059</v>
+        <v>31967</v>
       </c>
       <c r="E13" t="n">
-        <v>108548</v>
+        <v>33907</v>
       </c>
       <c r="F13" t="n">
-        <v>271745</v>
+        <v>34226</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">충청남도  </t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1040442</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>서대문구</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>98232</v>
+        <v>303453</v>
       </c>
       <c r="D14" t="n">
-        <v>114283</v>
+        <v>25559</v>
       </c>
       <c r="E14" t="n">
-        <v>149563</v>
+        <v>22691</v>
       </c>
       <c r="F14" t="n">
-        <v>362078</v>
+        <v>21794</v>
+      </c>
+      <c r="G14" t="n">
+        <v>70044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">전북특별자치도  </t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>873352</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>마포구</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>83171</v>
+        <v>361841</v>
       </c>
       <c r="D15" t="n">
-        <v>82314</v>
+        <v>32533</v>
       </c>
       <c r="E15" t="n">
-        <v>115140</v>
+        <v>34023</v>
       </c>
       <c r="F15" t="n">
-        <v>280625</v>
+        <v>28916</v>
+      </c>
+      <c r="G15" t="n">
+        <v>95472</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">전라남도  </t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>886852</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>양천구</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>74807</v>
+        <v>431623</v>
       </c>
       <c r="D16" t="n">
-        <v>79551</v>
+        <v>24816</v>
       </c>
       <c r="E16" t="n">
-        <v>109961</v>
+        <v>26479</v>
       </c>
       <c r="F16" t="n">
-        <v>264319</v>
+        <v>37023</v>
+      </c>
+      <c r="G16" t="n">
+        <v>88318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">경상북도  </t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1252072</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>강서구</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>101055</v>
+        <v>557095</v>
       </c>
       <c r="D17" t="n">
-        <v>115806</v>
+        <v>41698</v>
       </c>
       <c r="E17" t="n">
-        <v>165482</v>
+        <v>48297</v>
       </c>
       <c r="F17" t="n">
-        <v>382343</v>
+        <v>41876</v>
+      </c>
+      <c r="G17" t="n">
+        <v>131871</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">경상남도  </t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1602419</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>구로구</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>133796</v>
+        <v>388488</v>
       </c>
       <c r="D18" t="n">
-        <v>161735</v>
+        <v>25166</v>
       </c>
       <c r="E18" t="n">
-        <v>238994</v>
+        <v>29867</v>
       </c>
       <c r="F18" t="n">
-        <v>534525</v>
+        <v>27723</v>
+      </c>
+      <c r="G18" t="n">
+        <v>82756</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">제주특별자치도  </t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>335149</v>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>금천구</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>32750</v>
+        <v>225371</v>
       </c>
       <c r="D19" t="n">
-        <v>38135</v>
+        <v>17545</v>
       </c>
       <c r="E19" t="n">
-        <v>52070</v>
+        <v>17272</v>
       </c>
       <c r="F19" t="n">
-        <v>122955</v>
+        <v>13244</v>
+      </c>
+      <c r="G19" t="n">
+        <v>48061</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>영등포구</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>374201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30764</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36023</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25811</v>
+      </c>
+      <c r="G20" t="n">
+        <v>92598</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>동작구</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>376440</v>
+      </c>
+      <c r="D21" t="n">
+        <v>32438</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29751</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26437</v>
+      </c>
+      <c r="G21" t="n">
+        <v>88626</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>관악구</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>478167</v>
+      </c>
+      <c r="D22" t="n">
+        <v>53781</v>
+      </c>
+      <c r="E22" t="n">
+        <v>39861</v>
+      </c>
+      <c r="F22" t="n">
+        <v>27522</v>
+      </c>
+      <c r="G22" t="n">
+        <v>121164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>서초구</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>408382</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25848</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30739</v>
+      </c>
+      <c r="F23" t="n">
+        <v>38274</v>
+      </c>
+      <c r="G23" t="n">
+        <v>94861</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>강남구</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>557942</v>
+      </c>
+      <c r="D24" t="n">
+        <v>35353</v>
+      </c>
+      <c r="E24" t="n">
+        <v>43042</v>
+      </c>
+      <c r="F24" t="n">
+        <v>54916</v>
+      </c>
+      <c r="G24" t="n">
+        <v>133311</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>송파구</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>651910</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43214</v>
+      </c>
+      <c r="E25" t="n">
+        <v>55308</v>
+      </c>
+      <c r="F25" t="n">
+        <v>54474</v>
+      </c>
+      <c r="G25" t="n">
+        <v>152996</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>강동구</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>468284</v>
+      </c>
+      <c r="D26" t="n">
+        <v>29041</v>
+      </c>
+      <c r="E26" t="n">
+        <v>35699</v>
+      </c>
+      <c r="F26" t="n">
+        <v>37927</v>
+      </c>
+      <c r="G26" t="n">
+        <v>102667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>37628</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2707</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1883</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1909</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>서구</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>103239</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5964</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5026</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6435</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17425</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>86087</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4581</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5199</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5047</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14827</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>영도구</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>103970</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4120</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4232</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6095</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14447</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>부산진구</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>359856</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25511</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25254</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24040</v>
+      </c>
+      <c r="G31" t="n">
+        <v>74805</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>동래구</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>273654</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13406</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16195</v>
+      </c>
+      <c r="F32" t="n">
+        <v>22109</v>
+      </c>
+      <c r="G32" t="n">
+        <v>51710</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>남구</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>254784</v>
+      </c>
+      <c r="D33" t="n">
+        <v>15155</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13166</v>
+      </c>
+      <c r="F33" t="n">
+        <v>18309</v>
+      </c>
+      <c r="G33" t="n">
+        <v>46630</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>북구</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>267988</v>
+      </c>
+      <c r="D34" t="n">
+        <v>13031</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15060</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17378</v>
+      </c>
+      <c r="G34" t="n">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>해운대구</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>376448</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18284</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20661</v>
+      </c>
+      <c r="F35" t="n">
+        <v>29904</v>
+      </c>
+      <c r="G35" t="n">
+        <v>68849</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>사하구</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>292791</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14617</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14710</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19755</v>
+      </c>
+      <c r="G36" t="n">
+        <v>49082</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>금정구</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>210377</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12543</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9657</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13328</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35528</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>강서구</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>142777</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4874</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10858</v>
+      </c>
+      <c r="F38" t="n">
+        <v>13506</v>
+      </c>
+      <c r="G38" t="n">
+        <v>29238</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>연제구</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>212481</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11440</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13886</v>
+      </c>
+      <c r="F39" t="n">
+        <v>16050</v>
+      </c>
+      <c r="G39" t="n">
+        <v>41376</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>수영구</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>172026</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11227</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11576</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11975</v>
+      </c>
+      <c r="G40" t="n">
+        <v>34778</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>사상구</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>199070</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11174</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10734</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11919</v>
+      </c>
+      <c r="G41" t="n">
+        <v>33827</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>기장군</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>175817</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7275</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10256</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16018</v>
+      </c>
+      <c r="G42" t="n">
+        <v>33549</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>96757</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7220</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8181</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6957</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22358</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>342777</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17308</v>
+      </c>
+      <c r="E44" t="n">
+        <v>20568</v>
+      </c>
+      <c r="F44" t="n">
+        <v>23661</v>
+      </c>
+      <c r="G44" t="n">
+        <v>61537</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>서구</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>163545</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7509</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8292</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9169</v>
+      </c>
+      <c r="G45" t="n">
+        <v>24970</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>남구</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>135561</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8779</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7262</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8448</v>
+      </c>
+      <c r="G46" t="n">
+        <v>24489</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>북구</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>413719</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24985</v>
+      </c>
+      <c r="E47" t="n">
+        <v>21925</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30267</v>
+      </c>
+      <c r="G47" t="n">
+        <v>77177</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>수성구</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>409044</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21187</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20561</v>
+      </c>
+      <c r="F48" t="n">
+        <v>34808</v>
+      </c>
+      <c r="G48" t="n">
+        <v>76556</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>달서구</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>522712</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29937</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28007</v>
+      </c>
+      <c r="F49" t="n">
+        <v>38688</v>
+      </c>
+      <c r="G49" t="n">
+        <v>96632</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>달성군</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>257764</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10548</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16346</v>
+      </c>
+      <c r="F50" t="n">
+        <v>21529</v>
+      </c>
+      <c r="G50" t="n">
+        <v>48423</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>군위군</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>22455</v>
+      </c>
+      <c r="D51" t="n">
+        <v>378</v>
+      </c>
+      <c r="E51" t="n">
+        <v>481</v>
+      </c>
+      <c r="F51" t="n">
+        <v>712</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>166354</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10526</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12264</v>
+      </c>
+      <c r="F52" t="n">
+        <v>13211</v>
+      </c>
+      <c r="G52" t="n">
+        <v>36001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>58382</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2752</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2911</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3959</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9622</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>미추홀구</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>412534</v>
+      </c>
+      <c r="D54" t="n">
+        <v>23975</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26473</v>
+      </c>
+      <c r="F54" t="n">
+        <v>29348</v>
+      </c>
+      <c r="G54" t="n">
+        <v>79796</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>연수구</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>400174</v>
+      </c>
+      <c r="D55" t="n">
+        <v>22616</v>
+      </c>
+      <c r="E55" t="n">
+        <v>27902</v>
+      </c>
+      <c r="F55" t="n">
+        <v>35526</v>
+      </c>
+      <c r="G55" t="n">
+        <v>86044</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>남동구</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>486663</v>
+      </c>
+      <c r="D56" t="n">
+        <v>27644</v>
+      </c>
+      <c r="E56" t="n">
+        <v>28749</v>
+      </c>
+      <c r="F56" t="n">
+        <v>37731</v>
+      </c>
+      <c r="G56" t="n">
+        <v>94124</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>부평구</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>492193</v>
+      </c>
+      <c r="D57" t="n">
+        <v>28959</v>
+      </c>
+      <c r="E57" t="n">
+        <v>34735</v>
+      </c>
+      <c r="F57" t="n">
+        <v>35368</v>
+      </c>
+      <c r="G57" t="n">
+        <v>99062</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>계양구</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>280623</v>
+      </c>
+      <c r="D58" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E58" t="n">
+        <v>17398</v>
+      </c>
+      <c r="F58" t="n">
+        <v>19065</v>
+      </c>
+      <c r="G58" t="n">
+        <v>52757</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>서구</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>632347</v>
+      </c>
+      <c r="D59" t="n">
+        <v>34973</v>
+      </c>
+      <c r="E59" t="n">
+        <v>47820</v>
+      </c>
+      <c r="F59" t="n">
+        <v>53221</v>
+      </c>
+      <c r="G59" t="n">
+        <v>136014</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>강화군</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>69299</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2266</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3318</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7477</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>옹진군</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>20020</v>
+      </c>
+      <c r="D61" t="n">
+        <v>688</v>
+      </c>
+      <c r="E61" t="n">
+        <v>564</v>
+      </c>
+      <c r="F61" t="n">
+        <v>746</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>광주광역시</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>106413</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7118</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6922</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6737</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20777</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>광주광역시</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>서구</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>279339</v>
+      </c>
+      <c r="D63" t="n">
+        <v>18889</v>
+      </c>
+      <c r="E63" t="n">
+        <v>16058</v>
+      </c>
+      <c r="F63" t="n">
+        <v>21533</v>
+      </c>
+      <c r="G63" t="n">
+        <v>56480</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>광주광역시</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>남구</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>207321</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11303</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11362</v>
+      </c>
+      <c r="F64" t="n">
+        <v>16575</v>
+      </c>
+      <c r="G64" t="n">
+        <v>39240</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>광주광역시</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>북구</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>424535</v>
+      </c>
+      <c r="D65" t="n">
+        <v>25312</v>
+      </c>
+      <c r="E65" t="n">
+        <v>26006</v>
+      </c>
+      <c r="F65" t="n">
+        <v>31278</v>
+      </c>
+      <c r="G65" t="n">
+        <v>82596</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>광주광역시</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>광산구</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>392016</v>
+      </c>
+      <c r="D66" t="n">
+        <v>24837</v>
+      </c>
+      <c r="E66" t="n">
+        <v>23347</v>
+      </c>
+      <c r="F66" t="n">
+        <v>34217</v>
+      </c>
+      <c r="G66" t="n">
+        <v>82401</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>대전광역시</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>218595</v>
+      </c>
+      <c r="D67" t="n">
+        <v>13416</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11307</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14567</v>
+      </c>
+      <c r="G67" t="n">
+        <v>39290</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>대전광역시</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>224687</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12998</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12016</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15732</v>
+      </c>
+      <c r="G68" t="n">
+        <v>40746</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>대전광역시</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>서구</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>458487</v>
+      </c>
+      <c r="D69" t="n">
+        <v>32672</v>
+      </c>
+      <c r="E69" t="n">
+        <v>30061</v>
+      </c>
+      <c r="F69" t="n">
+        <v>35831</v>
+      </c>
+      <c r="G69" t="n">
+        <v>98564</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>대전광역시</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>유성구</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>369483</v>
+      </c>
+      <c r="D70" t="n">
+        <v>24572</v>
+      </c>
+      <c r="E70" t="n">
+        <v>27421</v>
+      </c>
+      <c r="F70" t="n">
+        <v>30026</v>
+      </c>
+      <c r="G70" t="n">
+        <v>82019</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>대전광역시</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>대덕구</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>168435</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E71" t="n">
+        <v>8563</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10873</v>
+      </c>
+      <c r="G71" t="n">
+        <v>28681</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>울산광역시</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>207007</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8926</v>
+      </c>
+      <c r="E72" t="n">
+        <v>11301</v>
+      </c>
+      <c r="F72" t="n">
+        <v>14931</v>
+      </c>
+      <c r="G72" t="n">
+        <v>35158</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>울산광역시</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>남구</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>304771</v>
+      </c>
+      <c r="D73" t="n">
+        <v>15970</v>
+      </c>
+      <c r="E73" t="n">
+        <v>18277</v>
+      </c>
+      <c r="F73" t="n">
+        <v>22510</v>
+      </c>
+      <c r="G73" t="n">
+        <v>56757</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>울산광역시</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>150955</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6460</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7932</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12207</v>
+      </c>
+      <c r="G74" t="n">
+        <v>26599</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>울산광역시</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>북구</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>216595</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9197</v>
+      </c>
+      <c r="E75" t="n">
+        <v>13689</v>
+      </c>
+      <c r="F75" t="n">
+        <v>18954</v>
+      </c>
+      <c r="G75" t="n">
+        <v>41840</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>울산광역시</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>울주군</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>218984</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9655</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10514</v>
+      </c>
+      <c r="F76" t="n">
+        <v>15436</v>
+      </c>
+      <c r="G76" t="n">
+        <v>35605</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>세종특별자치시</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>세종특별자치시</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>390603</v>
+      </c>
+      <c r="D77" t="n">
+        <v>18258</v>
+      </c>
+      <c r="E77" t="n">
+        <v>29846</v>
+      </c>
+      <c r="F77" t="n">
+        <v>39283</v>
+      </c>
+      <c r="G77" t="n">
+        <v>87387</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>수원시</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1193477</v>
+      </c>
+      <c r="D78" t="n">
+        <v>81893</v>
+      </c>
+      <c r="E78" t="n">
+        <v>87385</v>
+      </c>
+      <c r="F78" t="n">
+        <v>93615</v>
+      </c>
+      <c r="G78" t="n">
+        <v>262893</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>성남시</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>913781</v>
+      </c>
+      <c r="D79" t="n">
+        <v>54983</v>
+      </c>
+      <c r="E79" t="n">
+        <v>65298</v>
+      </c>
+      <c r="F79" t="n">
+        <v>72511</v>
+      </c>
+      <c r="G79" t="n">
+        <v>192792</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>의정부시</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>461032</v>
+      </c>
+      <c r="D80" t="n">
+        <v>28183</v>
+      </c>
+      <c r="E80" t="n">
+        <v>29198</v>
+      </c>
+      <c r="F80" t="n">
+        <v>33896</v>
+      </c>
+      <c r="G80" t="n">
+        <v>91277</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>안양시</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>554641</v>
+      </c>
+      <c r="D81" t="n">
+        <v>32195</v>
+      </c>
+      <c r="E81" t="n">
+        <v>39970</v>
+      </c>
+      <c r="F81" t="n">
+        <v>41468</v>
+      </c>
+      <c r="G81" t="n">
+        <v>113633</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>부천시</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>770817</v>
+      </c>
+      <c r="D82" t="n">
+        <v>45440</v>
+      </c>
+      <c r="E82" t="n">
+        <v>50862</v>
+      </c>
+      <c r="F82" t="n">
+        <v>56567</v>
+      </c>
+      <c r="G82" t="n">
+        <v>152869</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>광명시</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>277744</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15578</v>
+      </c>
+      <c r="E83" t="n">
+        <v>17903</v>
+      </c>
+      <c r="F83" t="n">
+        <v>22794</v>
+      </c>
+      <c r="G83" t="n">
+        <v>56275</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>평택시</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>597734</v>
+      </c>
+      <c r="D84" t="n">
+        <v>33027</v>
+      </c>
+      <c r="E84" t="n">
+        <v>41335</v>
+      </c>
+      <c r="F84" t="n">
+        <v>45978</v>
+      </c>
+      <c r="G84" t="n">
+        <v>120340</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>동두천시</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>86889</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4216</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3855</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5672</v>
+      </c>
+      <c r="G85" t="n">
+        <v>13743</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>안산시</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>621550</v>
+      </c>
+      <c r="D86" t="n">
+        <v>41545</v>
+      </c>
+      <c r="E86" t="n">
+        <v>37219</v>
+      </c>
+      <c r="F86" t="n">
+        <v>42903</v>
+      </c>
+      <c r="G86" t="n">
+        <v>121667</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>고양시</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1070671</v>
+      </c>
+      <c r="D87" t="n">
+        <v>63873</v>
+      </c>
+      <c r="E87" t="n">
+        <v>72301</v>
+      </c>
+      <c r="F87" t="n">
+        <v>83268</v>
+      </c>
+      <c r="G87" t="n">
+        <v>219442</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>과천시</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>85527</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4638</v>
+      </c>
+      <c r="E88" t="n">
+        <v>6839</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6792</v>
+      </c>
+      <c r="G88" t="n">
+        <v>18269</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>구리시</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>186775</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11114</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11925</v>
+      </c>
+      <c r="F89" t="n">
+        <v>14336</v>
+      </c>
+      <c r="G89" t="n">
+        <v>37375</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>남양주시</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>732586</v>
+      </c>
+      <c r="D90" t="n">
+        <v>38784</v>
+      </c>
+      <c r="E90" t="n">
+        <v>42229</v>
+      </c>
+      <c r="F90" t="n">
+        <v>63037</v>
+      </c>
+      <c r="G90" t="n">
+        <v>144050</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>오산시</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>241295</v>
+      </c>
+      <c r="D91" t="n">
+        <v>13253</v>
+      </c>
+      <c r="E91" t="n">
+        <v>16945</v>
+      </c>
+      <c r="F91" t="n">
+        <v>21145</v>
+      </c>
+      <c r="G91" t="n">
+        <v>51343</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>시흥시</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>518586</v>
+      </c>
+      <c r="D92" t="n">
+        <v>28044</v>
+      </c>
+      <c r="E92" t="n">
+        <v>34934</v>
+      </c>
+      <c r="F92" t="n">
+        <v>42349</v>
+      </c>
+      <c r="G92" t="n">
+        <v>105327</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>군포시</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>256407</v>
+      </c>
+      <c r="D93" t="n">
+        <v>15137</v>
+      </c>
+      <c r="E93" t="n">
+        <v>16409</v>
+      </c>
+      <c r="F93" t="n">
+        <v>18639</v>
+      </c>
+      <c r="G93" t="n">
+        <v>50185</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>의왕시</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>154671</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8735</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10975</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10688</v>
+      </c>
+      <c r="G94" t="n">
+        <v>30398</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>하남시</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>329341</v>
+      </c>
+      <c r="D95" t="n">
+        <v>17563</v>
+      </c>
+      <c r="E95" t="n">
+        <v>25560</v>
+      </c>
+      <c r="F95" t="n">
+        <v>29705</v>
+      </c>
+      <c r="G95" t="n">
+        <v>72828</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>용인시</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1084524</v>
+      </c>
+      <c r="D96" t="n">
+        <v>62724</v>
+      </c>
+      <c r="E96" t="n">
+        <v>66819</v>
+      </c>
+      <c r="F96" t="n">
+        <v>94619</v>
+      </c>
+      <c r="G96" t="n">
+        <v>224162</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>510140</v>
+      </c>
+      <c r="D97" t="n">
+        <v>25429</v>
+      </c>
+      <c r="E97" t="n">
+        <v>34529</v>
+      </c>
+      <c r="F97" t="n">
+        <v>41446</v>
+      </c>
+      <c r="G97" t="n">
+        <v>101404</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>이천시</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>222623</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11925</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13552</v>
+      </c>
+      <c r="F98" t="n">
+        <v>16085</v>
+      </c>
+      <c r="G98" t="n">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>안성시</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>193612</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9991</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10137</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13543</v>
+      </c>
+      <c r="G99" t="n">
+        <v>33671</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>김포시</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>486905</v>
+      </c>
+      <c r="D100" t="n">
+        <v>23555</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32845</v>
+      </c>
+      <c r="F100" t="n">
+        <v>45918</v>
+      </c>
+      <c r="G100" t="n">
+        <v>102318</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>화성시</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>966831</v>
+      </c>
+      <c r="D101" t="n">
+        <v>51233</v>
+      </c>
+      <c r="E101" t="n">
+        <v>75095</v>
+      </c>
+      <c r="F101" t="n">
+        <v>87952</v>
+      </c>
+      <c r="G101" t="n">
+        <v>214280</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>광주시</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>397756</v>
+      </c>
+      <c r="D102" t="n">
+        <v>19115</v>
+      </c>
+      <c r="E102" t="n">
+        <v>25147</v>
+      </c>
+      <c r="F102" t="n">
+        <v>32471</v>
+      </c>
+      <c r="G102" t="n">
+        <v>76733</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>양주시</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>288273</v>
+      </c>
+      <c r="D103" t="n">
+        <v>14799</v>
+      </c>
+      <c r="E103" t="n">
+        <v>18887</v>
+      </c>
+      <c r="F103" t="n">
+        <v>22512</v>
+      </c>
+      <c r="G103" t="n">
+        <v>56198</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>포천시</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>141572</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6547</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5867</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7512</v>
+      </c>
+      <c r="G104" t="n">
+        <v>19926</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>여주시</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>114751</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4942</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7409</v>
+      </c>
+      <c r="G105" t="n">
+        <v>17591</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>40804</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1542</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1571</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1855</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>가평군</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>62505</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2369</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2471</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3337</v>
+      </c>
+      <c r="G107" t="n">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>양평군</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>126825</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4226</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5105</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7898</v>
+      </c>
+      <c r="G108" t="n">
+        <v>17229</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>춘천시</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>286110</v>
+      </c>
+      <c r="D109" t="n">
+        <v>17039</v>
+      </c>
+      <c r="E109" t="n">
+        <v>16450</v>
+      </c>
+      <c r="F109" t="n">
+        <v>20112</v>
+      </c>
+      <c r="G109" t="n">
+        <v>53601</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>원주시</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>362213</v>
+      </c>
+      <c r="D110" t="n">
+        <v>19070</v>
+      </c>
+      <c r="E110" t="n">
+        <v>22367</v>
+      </c>
+      <c r="F110" t="n">
+        <v>27540</v>
+      </c>
+      <c r="G110" t="n">
+        <v>68977</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>강릉시</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>207737</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9697</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9397</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14089</v>
+      </c>
+      <c r="G111" t="n">
+        <v>33183</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>동해시</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>87716</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3344</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3636</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6130</v>
+      </c>
+      <c r="G112" t="n">
+        <v>13110</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>태백시</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>37997</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1236</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2493</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>속초시</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>81025</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3301</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3996</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5586</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12883</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>삼척시</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>61952</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2716</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2240</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3457</v>
+      </c>
+      <c r="G115" t="n">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>홍천군</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>66810</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2143</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2422</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3297</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>횡성군</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>46160</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>영월군</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>36820</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1132</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1798</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>평창군</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>40387</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1132</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>정선군</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>33583</v>
+      </c>
+      <c r="D120" t="n">
+        <v>892</v>
+      </c>
+      <c r="E120" t="n">
+        <v>946</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1729</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>철원군</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>40540</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1765</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2195</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>화천군</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>22975</v>
+      </c>
+      <c r="D122" t="n">
+        <v>943</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1060</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>양구군</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>20631</v>
+      </c>
+      <c r="D123" t="n">
+        <v>823</v>
+      </c>
+      <c r="E123" t="n">
+        <v>946</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1122</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>인제군</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>31532</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1556</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1735</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>고성군</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>27027</v>
+      </c>
+      <c r="D125" t="n">
+        <v>900</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1279</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>양양군</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>27485</v>
+      </c>
+      <c r="D126" t="n">
+        <v>776</v>
+      </c>
+      <c r="E126" t="n">
+        <v>902</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1457</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>청주시</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>854370</v>
+      </c>
+      <c r="D127" t="n">
+        <v>49443</v>
+      </c>
+      <c r="E127" t="n">
+        <v>54782</v>
+      </c>
+      <c r="F127" t="n">
+        <v>64734</v>
+      </c>
+      <c r="G127" t="n">
+        <v>168959</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>충주시</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>207324</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9043</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9780</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13682</v>
+      </c>
+      <c r="G128" t="n">
+        <v>32505</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>제천시</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>128725</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6019</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5082</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7663</v>
+      </c>
+      <c r="G129" t="n">
+        <v>18764</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>보은군</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>30567</v>
+      </c>
+      <c r="D130" t="n">
+        <v>763</v>
+      </c>
+      <c r="E130" t="n">
+        <v>782</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1212</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>옥천군</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>48294</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1548</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2538</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>영동군</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>43597</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1134</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1940</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>증평군</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>37215</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1658</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2427</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>진천군</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>86534</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3356</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4815</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6515</v>
+      </c>
+      <c r="G134" t="n">
+        <v>14686</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>괴산군</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>36072</v>
+      </c>
+      <c r="D135" t="n">
+        <v>842</v>
+      </c>
+      <c r="E135" t="n">
+        <v>826</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1372</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>음성군</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>90977</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3427</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3677</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5292</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12396</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>단양군</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>27425</v>
+      </c>
+      <c r="D137" t="n">
+        <v>683</v>
+      </c>
+      <c r="E137" t="n">
+        <v>751</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1173</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>천안시</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>659800</v>
+      </c>
+      <c r="D138" t="n">
+        <v>40977</v>
+      </c>
+      <c r="E138" t="n">
+        <v>44659</v>
+      </c>
+      <c r="F138" t="n">
+        <v>52656</v>
+      </c>
+      <c r="G138" t="n">
+        <v>138292</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>공주시</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>101441</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5172</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3728</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5451</v>
+      </c>
+      <c r="G139" t="n">
+        <v>14351</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>보령시</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>93914</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3179</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3392</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5395</v>
+      </c>
+      <c r="G140" t="n">
+        <v>11966</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>아산시</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>354507</v>
+      </c>
+      <c r="D141" t="n">
+        <v>17125</v>
+      </c>
+      <c r="E141" t="n">
+        <v>24177</v>
+      </c>
+      <c r="F141" t="n">
+        <v>29383</v>
+      </c>
+      <c r="G141" t="n">
+        <v>70685</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>서산시</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>174656</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6501</v>
+      </c>
+      <c r="E142" t="n">
+        <v>8517</v>
+      </c>
+      <c r="F142" t="n">
+        <v>12281</v>
+      </c>
+      <c r="G142" t="n">
+        <v>27299</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>논산시</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>108658</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3978</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4203</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6060</v>
+      </c>
+      <c r="G143" t="n">
+        <v>14241</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>계룡시</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>46624</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2082</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2595</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4266</v>
+      </c>
+      <c r="G144" t="n">
+        <v>8943</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>당진시</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>171825</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5937</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8656</v>
+      </c>
+      <c r="F145" t="n">
+        <v>12282</v>
+      </c>
+      <c r="G145" t="n">
+        <v>26875</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>금산군</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>49622</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1373</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1446</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2429</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>부여군</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>59638</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1675</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1605</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2588</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>서천군</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>48289</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1267</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1246</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2096</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>청양군</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>29646</v>
+      </c>
+      <c r="D149" t="n">
+        <v>943</v>
+      </c>
+      <c r="E149" t="n">
+        <v>781</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>홍성군</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>99133</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3896</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4599</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6578</v>
+      </c>
+      <c r="G150" t="n">
+        <v>15073</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>예산군</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>78655</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2459</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2953</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4029</v>
+      </c>
+      <c r="G151" t="n">
+        <v>9441</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>태안군</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>60224</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2949</v>
+      </c>
+      <c r="G152" t="n">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>전주시</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>636721</v>
+      </c>
+      <c r="D153" t="n">
+        <v>38913</v>
+      </c>
+      <c r="E153" t="n">
+        <v>36802</v>
+      </c>
+      <c r="F153" t="n">
+        <v>48953</v>
+      </c>
+      <c r="G153" t="n">
+        <v>124668</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>군산시</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>258175</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11223</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12201</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18845</v>
+      </c>
+      <c r="G154" t="n">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>익산시</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>268058</v>
+      </c>
+      <c r="D155" t="n">
+        <v>13747</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12436</v>
+      </c>
+      <c r="F155" t="n">
+        <v>17356</v>
+      </c>
+      <c r="G155" t="n">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>정읍시</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>102091</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3755</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3592</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5823</v>
+      </c>
+      <c r="G156" t="n">
+        <v>13170</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>남원시</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>75539</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2592</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2667</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4307</v>
+      </c>
+      <c r="G157" t="n">
+        <v>9566</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>김제시</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>80507</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2989</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3920</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>완주군</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>99105</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4011</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6320</v>
+      </c>
+      <c r="G159" t="n">
+        <v>15596</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>진안군</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>24209</v>
+      </c>
+      <c r="D160" t="n">
+        <v>673</v>
+      </c>
+      <c r="E160" t="n">
+        <v>688</v>
+      </c>
+      <c r="F160" t="n">
+        <v>923</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>무주군</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>23066</v>
+      </c>
+      <c r="D161" t="n">
+        <v>669</v>
+      </c>
+      <c r="E161" t="n">
+        <v>640</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1073</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>장수군</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>20699</v>
+      </c>
+      <c r="D162" t="n">
+        <v>542</v>
+      </c>
+      <c r="E162" t="n">
+        <v>557</v>
+      </c>
+      <c r="F162" t="n">
+        <v>897</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>임실군</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>25604</v>
+      </c>
+      <c r="D163" t="n">
+        <v>660</v>
+      </c>
+      <c r="E163" t="n">
+        <v>736</v>
+      </c>
+      <c r="F163" t="n">
+        <v>913</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>순창군</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>26756</v>
+      </c>
+      <c r="D164" t="n">
+        <v>869</v>
+      </c>
+      <c r="E164" t="n">
+        <v>805</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>고창군</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>51070</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1517</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2246</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>부안군</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>48151</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1419</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2284</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>목포시</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>210261</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10574</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9970</v>
+      </c>
+      <c r="F167" t="n">
+        <v>16149</v>
+      </c>
+      <c r="G167" t="n">
+        <v>36693</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>여수시</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>268120</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12286</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12587</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17674</v>
+      </c>
+      <c r="G168" t="n">
+        <v>42547</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>순천시</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>276126</v>
+      </c>
+      <c r="D169" t="n">
+        <v>14462</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19910</v>
+      </c>
+      <c r="G169" t="n">
+        <v>49692</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>나주시</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>116704</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5037</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6944</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7752</v>
+      </c>
+      <c r="G170" t="n">
+        <v>19733</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>광양시</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>154592</v>
+      </c>
+      <c r="D171" t="n">
+        <v>7253</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8661</v>
+      </c>
+      <c r="F171" t="n">
+        <v>10704</v>
+      </c>
+      <c r="G171" t="n">
+        <v>26618</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>담양군</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1472</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1580</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2042</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>곡성군</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>26590</v>
+      </c>
+      <c r="D173" t="n">
+        <v>824</v>
+      </c>
+      <c r="E173" t="n">
+        <v>751</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>구례군</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>24047</v>
+      </c>
+      <c r="D174" t="n">
+        <v>654</v>
+      </c>
+      <c r="E174" t="n">
+        <v>651</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1074</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>고흥군</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>60273</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1346</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2266</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>보성군</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>37070</v>
+      </c>
+      <c r="D176" t="n">
+        <v>930</v>
+      </c>
+      <c r="E176" t="n">
+        <v>884</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1462</v>
+      </c>
+      <c r="G176" t="n">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>화순군</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>60832</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2810</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2230</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3292</v>
+      </c>
+      <c r="G177" t="n">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>장흥군</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>34467</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1503</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>강진군</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>32197</v>
+      </c>
+      <c r="D179" t="n">
+        <v>955</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1439</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>해남군</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>63280</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1861</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1779</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3016</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6656</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>영암군</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>51456</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1811</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1778</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2717</v>
+      </c>
+      <c r="G181" t="n">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>무안군</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>92487</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4232</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5365</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7121</v>
+      </c>
+      <c r="G182" t="n">
+        <v>16718</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>함평군</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>30018</v>
+      </c>
+      <c r="D183" t="n">
+        <v>829</v>
+      </c>
+      <c r="E183" t="n">
+        <v>794</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1174</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>영광군</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>51999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1926</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2286</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2666</v>
+      </c>
+      <c r="G184" t="n">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>장성군</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>42087</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1372</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1478</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2093</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>완도군</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>45702</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1265</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1317</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2245</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>진도군</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>28545</v>
+      </c>
+      <c r="D187" t="n">
+        <v>907</v>
+      </c>
+      <c r="E187" t="n">
+        <v>879</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1231</v>
+      </c>
+      <c r="G187" t="n">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>전라남도</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>신안군</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>38102</v>
+      </c>
+      <c r="D188" t="n">
+        <v>947</v>
+      </c>
+      <c r="E188" t="n">
+        <v>839</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1311</v>
+      </c>
+      <c r="G188" t="n">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>포항시</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>491673</v>
+      </c>
+      <c r="D189" t="n">
+        <v>19834</v>
+      </c>
+      <c r="E189" t="n">
+        <v>24255</v>
+      </c>
+      <c r="F189" t="n">
+        <v>35281</v>
+      </c>
+      <c r="G189" t="n">
+        <v>79370</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>경주시</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>245127</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9358</v>
+      </c>
+      <c r="E190" t="n">
+        <v>10429</v>
+      </c>
+      <c r="F190" t="n">
+        <v>15031</v>
+      </c>
+      <c r="G190" t="n">
+        <v>34818</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>김천시</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>135561</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5104</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6147</v>
+      </c>
+      <c r="F191" t="n">
+        <v>8458</v>
+      </c>
+      <c r="G191" t="n">
+        <v>19709</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>안동시</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>153444</v>
+      </c>
+      <c r="D192" t="n">
+        <v>7169</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6414</v>
+      </c>
+      <c r="F192" t="n">
+        <v>9651</v>
+      </c>
+      <c r="G192" t="n">
+        <v>23234</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>구미시</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>404800</v>
+      </c>
+      <c r="D193" t="n">
+        <v>19491</v>
+      </c>
+      <c r="E193" t="n">
+        <v>26710</v>
+      </c>
+      <c r="F193" t="n">
+        <v>34565</v>
+      </c>
+      <c r="G193" t="n">
+        <v>80766</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>영주시</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>99028</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3711</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3305</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5751</v>
+      </c>
+      <c r="G194" t="n">
+        <v>12767</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>영천시</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>98492</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3025</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3731</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4876</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11632</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>상주시</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>92010</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2682</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2866</v>
+      </c>
+      <c r="F196" t="n">
+        <v>4598</v>
+      </c>
+      <c r="G196" t="n">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>문경시</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>67340</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2182</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2133</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3563</v>
+      </c>
+      <c r="G197" t="n">
+        <v>7878</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>경산시</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>266702</v>
+      </c>
+      <c r="D198" t="n">
+        <v>15941</v>
+      </c>
+      <c r="E198" t="n">
+        <v>13930</v>
+      </c>
+      <c r="F198" t="n">
+        <v>18485</v>
+      </c>
+      <c r="G198" t="n">
+        <v>48356</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>의성군</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>48780</v>
+      </c>
+      <c r="D199" t="n">
+        <v>934</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1164</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1625</v>
+      </c>
+      <c r="G199" t="n">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>청송군</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>23737</v>
+      </c>
+      <c r="D200" t="n">
+        <v>512</v>
+      </c>
+      <c r="E200" t="n">
+        <v>555</v>
+      </c>
+      <c r="F200" t="n">
+        <v>868</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>영양군</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>15335</v>
+      </c>
+      <c r="D201" t="n">
+        <v>340</v>
+      </c>
+      <c r="E201" t="n">
+        <v>377</v>
+      </c>
+      <c r="F201" t="n">
+        <v>571</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>영덕군</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>33243</v>
+      </c>
+      <c r="D202" t="n">
+        <v>728</v>
+      </c>
+      <c r="E202" t="n">
+        <v>864</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1462</v>
+      </c>
+      <c r="G202" t="n">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>청도군</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>40617</v>
+      </c>
+      <c r="D203" t="n">
+        <v>836</v>
+      </c>
+      <c r="E203" t="n">
+        <v>974</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1660</v>
+      </c>
+      <c r="G203" t="n">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>고령군</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>30125</v>
+      </c>
+      <c r="D204" t="n">
+        <v>788</v>
+      </c>
+      <c r="E204" t="n">
+        <v>854</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1384</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>성주군</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>41471</v>
+      </c>
+      <c r="D205" t="n">
+        <v>903</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1244</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1630</v>
+      </c>
+      <c r="G205" t="n">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>칠곡군</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>107599</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3732</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4888</v>
+      </c>
+      <c r="F206" t="n">
+        <v>8573</v>
+      </c>
+      <c r="G206" t="n">
+        <v>17193</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>예천군</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>54651</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1505</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2417</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3425</v>
+      </c>
+      <c r="G207" t="n">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>봉화군</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>28934</v>
+      </c>
+      <c r="D208" t="n">
+        <v>549</v>
+      </c>
+      <c r="E208" t="n">
+        <v>602</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1082</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>울진군</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>46166</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1473</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1654</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2511</v>
+      </c>
+      <c r="G209" t="n">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>울릉군</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>9144</v>
+      </c>
+      <c r="D210" t="n">
+        <v>258</v>
+      </c>
+      <c r="E210" t="n">
+        <v>293</v>
+      </c>
+      <c r="F210" t="n">
+        <v>432</v>
+      </c>
+      <c r="G210" t="n">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>창원시</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1000693</v>
+      </c>
+      <c r="D211" t="n">
+        <v>45520</v>
+      </c>
+      <c r="E211" t="n">
+        <v>55562</v>
+      </c>
+      <c r="F211" t="n">
+        <v>75669</v>
+      </c>
+      <c r="G211" t="n">
+        <v>176751</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>진주시</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>339052</v>
+      </c>
+      <c r="D212" t="n">
+        <v>17947</v>
+      </c>
+      <c r="E212" t="n">
+        <v>18395</v>
+      </c>
+      <c r="F212" t="n">
+        <v>24843</v>
+      </c>
+      <c r="G212" t="n">
+        <v>61185</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>통영시</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>118612</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3816</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4569</v>
+      </c>
+      <c r="F213" t="n">
+        <v>8845</v>
+      </c>
+      <c r="G213" t="n">
+        <v>17230</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>사천시</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>108580</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4514</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7721</v>
+      </c>
+      <c r="G214" t="n">
+        <v>15834</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>김해시</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>531887</v>
+      </c>
+      <c r="D215" t="n">
+        <v>25389</v>
+      </c>
+      <c r="E215" t="n">
+        <v>30162</v>
+      </c>
+      <c r="F215" t="n">
+        <v>44364</v>
+      </c>
+      <c r="G215" t="n">
+        <v>99915</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>밀양시</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>100708</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2937</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3480</v>
+      </c>
+      <c r="F216" t="n">
+        <v>5395</v>
+      </c>
+      <c r="G216" t="n">
+        <v>11812</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>거제시</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>232963</v>
+      </c>
+      <c r="D217" t="n">
+        <v>8258</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11651</v>
+      </c>
+      <c r="F217" t="n">
+        <v>21129</v>
+      </c>
+      <c r="G217" t="n">
+        <v>41038</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>양산시</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>359083</v>
+      </c>
+      <c r="D218" t="n">
+        <v>15561</v>
+      </c>
+      <c r="E218" t="n">
+        <v>21526</v>
+      </c>
+      <c r="F218" t="n">
+        <v>30029</v>
+      </c>
+      <c r="G218" t="n">
+        <v>67116</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>의령군</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>25092</v>
+      </c>
+      <c r="D219" t="n">
+        <v>529</v>
+      </c>
+      <c r="E219" t="n">
+        <v>672</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>함안군</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>58926</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1575</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1873</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3628</v>
+      </c>
+      <c r="G220" t="n">
+        <v>7076</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>창녕군</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>56067</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1244</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2661</v>
+      </c>
+      <c r="G221" t="n">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>고성군</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>48175</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1154</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1189</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2451</v>
+      </c>
+      <c r="G222" t="n">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>남해군</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>39918</v>
+      </c>
+      <c r="D223" t="n">
+        <v>862</v>
+      </c>
+      <c r="E223" t="n">
+        <v>910</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G223" t="n">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>하동군</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>40825</v>
+      </c>
+      <c r="D224" t="n">
+        <v>893</v>
+      </c>
+      <c r="E224" t="n">
+        <v>966</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1658</v>
+      </c>
+      <c r="G224" t="n">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>산청군</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>33308</v>
+      </c>
+      <c r="D225" t="n">
+        <v>746</v>
+      </c>
+      <c r="E225" t="n">
+        <v>780</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1271</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>함양군</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>36170</v>
+      </c>
+      <c r="D226" t="n">
+        <v>907</v>
+      </c>
+      <c r="E226" t="n">
+        <v>951</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1667</v>
+      </c>
+      <c r="G226" t="n">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>거창군</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>59700</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2090</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3342</v>
+      </c>
+      <c r="G227" t="n">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>합천군</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>40312</v>
+      </c>
+      <c r="D228" t="n">
+        <v>891</v>
+      </c>
+      <c r="E228" t="n">
+        <v>869</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1508</v>
+      </c>
+      <c r="G228" t="n">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>제주특별자치도</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>제주시</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>488613</v>
+      </c>
+      <c r="D229" t="n">
+        <v>25552</v>
+      </c>
+      <c r="E229" t="n">
+        <v>29325</v>
+      </c>
+      <c r="F229" t="n">
+        <v>38402</v>
+      </c>
+      <c r="G229" t="n">
+        <v>93279</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>제주특별자치도</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>서귀포시</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>182019</v>
+      </c>
+      <c r="D230" t="n">
+        <v>7198</v>
+      </c>
+      <c r="E230" t="n">
+        <v>8810</v>
+      </c>
+      <c r="F230" t="n">
+        <v>13668</v>
+      </c>
+      <c r="G230" t="n">
+        <v>29676</v>
       </c>
     </row>
   </sheetData>
